--- a/gulpkit.js/pug_tmp_engine/sitemap.xlsx
+++ b/gulpkit.js/pug_tmp_engine/sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\gulp_startkit\gulpkit\pug_tmp_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\gulp_startkit\gulpkit.js\pug_tmp_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9B322-5BE4-4AA2-9553-C0ED86A1248C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99AE836-35A5-42FE-B826-A70C24DD00D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="28830" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="1485" windowWidth="25200" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ogPrefix</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -143,6 +139,10 @@
   </si>
   <si>
     <t>/_template.pug</t>
+  </si>
+  <si>
+    <t>/index.html</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -548,126 +548,126 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
